--- a/问题列表2017.6.08.xlsx
+++ b/问题列表2017.6.08.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1760" yWindow="140" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>测试手机详情：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,11 +55,15 @@
     <t>4.昨天提出的绝大部分问题都依旧存在，如字体大小问题、删除医嘱问题等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>这个我已经更改了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -104,7 +111,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -139,7 +146,7 @@
         <xdr:cNvPr id="14" name="图片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F50F4DF-2DFF-47FB-86D9-CFEF54C0BB47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F50F4DF-2DFF-47FB-86D9-CFEF54C0BB47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -189,7 +196,7 @@
         <xdr:cNvPr id="17" name="矩形 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9BDA05-F2A4-4F73-B407-060AC5339B9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C9BDA05-F2A4-4F73-B407-060AC5339B9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -255,7 +262,7 @@
         <xdr:cNvPr id="18" name="矩形 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05B09BBD-79C1-4F3C-A1C8-4082E6DD7A0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{05B09BBD-79C1-4F3C-A1C8-4082E6DD7A0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -321,7 +328,7 @@
         <xdr:cNvPr id="19" name="矩形 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD7C9CDA-050E-405F-9C4D-D6AB79A7CC42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD7C9CDA-050E-405F-9C4D-D6AB79A7CC42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -387,7 +394,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340A6BF6-E2E3-4DAA-9F34-6BE2D98FD54D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{340A6BF6-E2E3-4DAA-9F34-6BE2D98FD54D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -437,7 +444,7 @@
         <xdr:cNvPr id="24" name="矩形 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA0EF0B-75D2-44BC-A973-5D91986FDEDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDA0EF0B-75D2-44BC-A973-5D91986FDEDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -503,7 +510,7 @@
         <xdr:cNvPr id="26" name="图片 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E2C9C20-92F2-4C58-89B9-4843F5985A99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E2C9C20-92F2-4C58-89B9-4843F5985A99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -553,7 +560,7 @@
         <xdr:cNvPr id="27" name="矩形 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{316D04E4-B941-4A16-94EF-8FD11A31FA0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{316D04E4-B941-4A16-94EF-8FD11A31FA0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -647,7 +654,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -682,7 +689,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -892,7 +899,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -902,420 +909,422 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="43.25" customWidth="1"/>
+    <col min="1" max="2" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="3"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="3"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="3"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="3"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="3"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="3"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="3"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="3"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="3"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="3"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="3"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="3"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="3"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="3"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="3"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="3"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="3"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="3"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="3"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="3"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="3"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="3"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="3"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="3"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="3"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="3"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="3"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="3"/>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" s="3"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" s="3"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" s="3"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="3"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="3"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" s="3"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" s="3"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51" s="3"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53" s="3"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56" s="3"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57" s="3"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1">
       <c r="A58" s="3"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59" s="3"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1">
       <c r="A60" s="3"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1">
       <c r="A61" s="3"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1">
       <c r="A62" s="3"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1">
       <c r="A63" s="3"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1">
       <c r="A64" s="3"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" s="3"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" s="3"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" s="3"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" s="3"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" s="3"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" s="3"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72" s="2"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73" s="2"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1">
       <c r="A80" s="2"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1">
       <c r="A81" s="2"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1">
       <c r="A82" s="2"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1">
       <c r="A83" s="2"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1">
       <c r="A84" s="2"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1">
       <c r="A85" s="2"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1">
       <c r="A86" s="2"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87" s="2"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1">
       <c r="A88" s="2"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1">
       <c r="A89" s="2"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90" s="2"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1">
       <c r="A91" s="2"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1">
       <c r="A92" s="2"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1">
       <c r="A93" s="2"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1">
       <c r="A94" s="2"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1">
       <c r="A95" s="2"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1">
       <c r="A96" s="2"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1">
       <c r="A97" s="2"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1">
       <c r="A98" s="2"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1">
       <c r="A99" s="2"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1">
       <c r="A100" s="2"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1">
       <c r="A101" s="2"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1">
       <c r="A102" s="2"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1">
       <c r="A103" s="2"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1">
       <c r="A104" s="2"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1">
       <c r="A105" s="2"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1">
       <c r="A106" s="2"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1">
       <c r="A107" s="2"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1">
       <c r="A108" s="2"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1">
       <c r="A109" s="2"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1">
       <c r="A110" s="2"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1">
       <c r="A111" s="2"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1">
       <c r="A112" s="2"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1">
       <c r="A113" s="2"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1">
       <c r="A114" s="2"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1">
       <c r="A115" s="2"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1">
       <c r="A116" s="2"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1">
       <c r="A117" s="2"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1">
       <c r="A118" s="2"/>
     </row>
   </sheetData>
@@ -1326,7 +1335,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/问题列表2017.6.08.xlsx
+++ b/问题列表2017.6.08.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="140" windowWidth="22260" windowHeight="12640"/>
+    <workbookView xWindow="3480" yWindow="0" windowWidth="23680" windowHeight="17400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>测试手机详情：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,10 @@
   </si>
   <si>
     <t>这个我已经更改了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊哈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -909,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -983,7 +987,9 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3"/>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3"/>
